--- a/DimitarKolchev2/lesson 5/Test_CASE_D_Kolchev.xlsx
+++ b/DimitarKolchev2/lesson 5/Test_CASE_D_Kolchev.xlsx
@@ -73,13 +73,13 @@
     <t>User account: "E-mail address" and "UserPasword"</t>
   </si>
   <si>
-    <t xml:space="preserve">Click: on Sign in button and enter valid e-mail address  and valid password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After entering valid e-mail address and valid password it loads: "My Account " page </t>
-  </si>
-  <si>
-    <t>Possitive LOGIN_001</t>
+    <t xml:space="preserve">1.Click: on Sign in button in upper right corner  2. Enter valid e-mail address  and valid password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.After entering valid e-mail address and valid password then click on green buton (SIGN IN) 2.After this it loads: "My Account " page </t>
+  </si>
+  <si>
+    <t>TC_001</t>
   </si>
 </sst>
 </file>
@@ -158,15 +158,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -176,6 +167,15 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +527,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,24 +539,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -564,7 +564,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -572,7 +572,7 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -580,7 +580,7 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -588,7 +588,7 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -596,7 +596,7 @@
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -604,7 +604,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>43395</v>
       </c>
     </row>
@@ -612,15 +612,15 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -630,11 +630,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
